--- a/SchedulingData/static8/pso/scheduling1_1.xlsx
+++ b/SchedulingData/static8/pso/scheduling1_1.xlsx
@@ -462,21 +462,21 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pond32</t>
+          <t>pond30</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>65.40000000000001</v>
+        <v>52</v>
       </c>
       <c r="E2" t="n">
-        <v>24.66</v>
+        <v>26.48</v>
       </c>
     </row>
     <row r="3">
@@ -500,21 +500,21 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>pond45</t>
+          <t>pond44</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>42.88</v>
       </c>
       <c r="D4" t="n">
-        <v>61.74</v>
+        <v>108.24</v>
       </c>
       <c r="E4" t="n">
-        <v>25.996</v>
+        <v>22.476</v>
       </c>
     </row>
     <row r="5">
@@ -523,55 +523,55 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>pond9</t>
+          <t>pond38</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>65.40000000000001</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>151.9</v>
+        <v>67.23999999999999</v>
       </c>
       <c r="E5" t="n">
-        <v>20.58</v>
+        <v>24.956</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>pond21</t>
+          <t>pond16</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>61.74</v>
+        <v>52</v>
       </c>
       <c r="D6" t="n">
-        <v>121.94</v>
+        <v>97.84</v>
       </c>
       <c r="E6" t="n">
-        <v>21.616</v>
+        <v>24.016</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>pond40</t>
+          <t>pond4</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>67.23999999999999</v>
       </c>
       <c r="D7" t="n">
-        <v>50.08</v>
+        <v>132.76</v>
       </c>
       <c r="E7" t="n">
-        <v>27.192</v>
+        <v>21.524</v>
       </c>
     </row>
     <row r="8">
@@ -580,17 +580,17 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>pond15</t>
+          <t>pond32</t>
         </is>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>48.42</v>
+        <v>65.40000000000001</v>
       </c>
       <c r="E8" t="n">
-        <v>26.348</v>
+        <v>24.66</v>
       </c>
     </row>
     <row r="9">
@@ -599,131 +599,131 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>pond54</t>
+          <t>pond47</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>48.42</v>
+        <v>65.40000000000001</v>
       </c>
       <c r="D9" t="n">
-        <v>120.52</v>
+        <v>107.3</v>
       </c>
       <c r="E9" t="n">
-        <v>22.268</v>
+        <v>22.1</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>pond25</t>
+          <t>pond54</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>107.3</v>
       </c>
       <c r="D10" t="n">
-        <v>81.78</v>
+        <v>159.4</v>
       </c>
       <c r="E10" t="n">
-        <v>25.952</v>
+        <v>18.02</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>pond3</t>
+          <t>pond5</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>120.52</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>206.66</v>
+        <v>58.1</v>
       </c>
       <c r="E11" t="n">
-        <v>18.264</v>
+        <v>26.36</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>pond26</t>
+          <t>pond60</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>81.78</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>125.56</v>
+        <v>65.76000000000001</v>
       </c>
       <c r="E12" t="n">
-        <v>22.704</v>
+        <v>26.084</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>pond64</t>
+          <t>pond21</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>125.56</v>
+        <v>159.4</v>
       </c>
       <c r="D13" t="n">
-        <v>206.28</v>
+        <v>229.5</v>
       </c>
       <c r="E13" t="n">
-        <v>19.712</v>
+        <v>13.64</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>pond58</t>
+          <t>pond10</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>151.9</v>
+        <v>65.76000000000001</v>
       </c>
       <c r="D14" t="n">
-        <v>218.44</v>
+        <v>136</v>
       </c>
       <c r="E14" t="n">
-        <v>17.556</v>
+        <v>23.18</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>pond19</t>
+          <t>pond25</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>206.66</v>
+        <v>136</v>
       </c>
       <c r="D15" t="n">
-        <v>262.26</v>
+        <v>192.78</v>
       </c>
       <c r="E15" t="n">
-        <v>13.844</v>
+        <v>19.132</v>
       </c>
     </row>
     <row r="16">
@@ -732,150 +732,150 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>pond11</t>
+          <t>pond29</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>262.26</v>
+        <v>229.5</v>
       </c>
       <c r="D16" t="n">
-        <v>308.02</v>
+        <v>270.22</v>
       </c>
       <c r="E16" t="n">
-        <v>9.907999999999999</v>
+        <v>10.208</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>pond60</t>
+          <t>pond46</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>218.44</v>
+        <v>58.1</v>
       </c>
       <c r="D17" t="n">
-        <v>273.8</v>
+        <v>144.6</v>
       </c>
       <c r="E17" t="n">
-        <v>13.64</v>
+        <v>20.84</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>pond46</t>
+          <t>pond1</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>42.88</v>
+        <v>97.84</v>
       </c>
       <c r="D18" t="n">
-        <v>114.28</v>
+        <v>166.94</v>
       </c>
       <c r="E18" t="n">
-        <v>20.892</v>
+        <v>21.176</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>pond1</t>
+          <t>pond8</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>50.08</v>
+        <v>270.22</v>
       </c>
       <c r="D19" t="n">
-        <v>134.18</v>
+        <v>339.12</v>
       </c>
       <c r="E19" t="n">
-        <v>24.352</v>
+        <v>6.428</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>pond28</t>
+          <t>pond48</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>114.28</v>
+        <v>339.12</v>
       </c>
       <c r="D20" t="n">
-        <v>181.96</v>
+        <v>404.52</v>
       </c>
       <c r="E20" t="n">
-        <v>16.244</v>
+        <v>2.528</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>pond36</t>
+          <t>pond51</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>134.18</v>
+        <v>108.24</v>
       </c>
       <c r="D21" t="n">
-        <v>220.08</v>
+        <v>158.18</v>
       </c>
       <c r="E21" t="n">
-        <v>19.372</v>
+        <v>18.612</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>pond31</t>
+          <t>pond45</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>121.94</v>
+        <v>158.18</v>
       </c>
       <c r="D22" t="n">
-        <v>176.14</v>
+        <v>214.42</v>
       </c>
       <c r="E22" t="n">
-        <v>17.816</v>
+        <v>14.608</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>pond55</t>
+          <t>pond17</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>176.14</v>
+        <v>166.94</v>
       </c>
       <c r="D23" t="n">
-        <v>231.74</v>
+        <v>214.34</v>
       </c>
       <c r="E23" t="n">
-        <v>13.896</v>
+        <v>17.576</v>
       </c>
     </row>
     <row r="24">
@@ -884,169 +884,169 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>pond44</t>
+          <t>pond55</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>231.74</v>
+        <v>192.78</v>
       </c>
       <c r="D24" t="n">
-        <v>292.2</v>
+        <v>277.78</v>
       </c>
       <c r="E24" t="n">
-        <v>9.960000000000001</v>
+        <v>15.212</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>pond27</t>
+          <t>pond36</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>181.96</v>
+        <v>144.6</v>
       </c>
       <c r="D25" t="n">
-        <v>228.86</v>
+        <v>210.6</v>
       </c>
       <c r="E25" t="n">
-        <v>12.684</v>
+        <v>15.86</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>pond42</t>
+          <t>pond6</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>220.08</v>
+        <v>214.42</v>
       </c>
       <c r="D26" t="n">
-        <v>264.84</v>
+        <v>275.36</v>
       </c>
       <c r="E26" t="n">
-        <v>16.516</v>
+        <v>11.644</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>pond53</t>
+          <t>pond24</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>292.2</v>
+        <v>275.36</v>
       </c>
       <c r="D27" t="n">
-        <v>347.18</v>
+        <v>336.08</v>
       </c>
       <c r="E27" t="n">
-        <v>5.592</v>
+        <v>7.692</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>pond17</t>
+          <t>pond28</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>264.84</v>
+        <v>336.08</v>
       </c>
       <c r="D28" t="n">
-        <v>322.14</v>
+        <v>408.56</v>
       </c>
       <c r="E28" t="n">
-        <v>12.916</v>
+        <v>3.044</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>pond20</t>
+          <t>pond12</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>228.86</v>
+        <v>210.6</v>
       </c>
       <c r="D29" t="n">
-        <v>275.68</v>
+        <v>254.04</v>
       </c>
       <c r="E29" t="n">
-        <v>9.132</v>
+        <v>13.156</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>pond39</t>
+          <t>pond3</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>347.18</v>
+        <v>132.76</v>
       </c>
       <c r="D30" t="n">
-        <v>395.58</v>
+        <v>184.1</v>
       </c>
       <c r="E30" t="n">
-        <v>2.872</v>
+        <v>17.52</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>pond12</t>
+          <t>pond62</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>308.02</v>
+        <v>277.78</v>
       </c>
       <c r="D31" t="n">
-        <v>346.36</v>
+        <v>330.52</v>
       </c>
       <c r="E31" t="n">
-        <v>7.204</v>
+        <v>11.068</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>pond35</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>395.58</v>
+        <v>254.04</v>
       </c>
       <c r="D32" t="n">
-        <v>461.74</v>
+        <v>315.54</v>
       </c>
       <c r="E32" t="n">
-        <v>30</v>
+        <v>9.135999999999999</v>
       </c>
     </row>
     <row r="33">
@@ -1055,36 +1055,36 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>pond37</t>
+          <t>pond39</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>461.74</v>
+        <v>330.52</v>
       </c>
       <c r="D33" t="n">
-        <v>539.4400000000001</v>
+        <v>379.02</v>
       </c>
       <c r="E33" t="n">
-        <v>24.4</v>
+        <v>8.348000000000001</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>pond57</t>
+          <t>depot2</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>206.28</v>
+        <v>404.52</v>
       </c>
       <c r="D34" t="n">
-        <v>281.78</v>
+        <v>466.46</v>
       </c>
       <c r="E34" t="n">
-        <v>16.232</v>
+        <v>30</v>
       </c>
     </row>
     <row r="35">
@@ -1093,93 +1093,93 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>pond43</t>
+          <t>pond18</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>346.36</v>
+        <v>466.46</v>
       </c>
       <c r="D35" t="n">
-        <v>410.5</v>
+        <v>545.8200000000001</v>
       </c>
       <c r="E35" t="n">
-        <v>3.42</v>
+        <v>26.204</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>depot2</t>
+          <t>pond9</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>410.5</v>
+        <v>184.1</v>
       </c>
       <c r="D36" t="n">
-        <v>495.16</v>
+        <v>241.1</v>
       </c>
       <c r="E36" t="n">
-        <v>30</v>
+        <v>13.44</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>pond30</t>
+          <t>pond41</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>495.16</v>
+        <v>241.1</v>
       </c>
       <c r="D37" t="n">
-        <v>547.16</v>
+        <v>290.58</v>
       </c>
       <c r="E37" t="n">
-        <v>26.48</v>
+        <v>10.632</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>pond5</t>
+          <t>pond57</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>547.16</v>
+        <v>214.34</v>
       </c>
       <c r="D38" t="n">
-        <v>604.86</v>
+        <v>275.54</v>
       </c>
       <c r="E38" t="n">
-        <v>22.84</v>
+        <v>14.096</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>pond52</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>281.78</v>
+        <v>408.56</v>
       </c>
       <c r="D39" t="n">
-        <v>336</v>
+        <v>489.07</v>
       </c>
       <c r="E39" t="n">
-        <v>12.92</v>
+        <v>30</v>
       </c>
     </row>
     <row r="40">
@@ -1188,207 +1188,207 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>pond49</t>
+          <t>pond31</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>275.68</v>
+        <v>489.07</v>
       </c>
       <c r="D40" t="n">
-        <v>350.18</v>
+        <v>538.97</v>
       </c>
       <c r="E40" t="n">
-        <v>5.292</v>
+        <v>26.2</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>pond35</t>
+          <t>pond14</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>539.4400000000001</v>
+        <v>315.54</v>
       </c>
       <c r="D41" t="n">
-        <v>595.84</v>
+        <v>388.64</v>
       </c>
       <c r="E41" t="n">
-        <v>20.38</v>
+        <v>4.936</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>pond22</t>
+          <t>pond49</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>336</v>
+        <v>545.8200000000001</v>
       </c>
       <c r="D42" t="n">
-        <v>396.32</v>
+        <v>610.52</v>
       </c>
       <c r="E42" t="n">
-        <v>10.008</v>
+        <v>22.364</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>pond8</t>
+          <t>pond50</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>595.84</v>
+        <v>290.58</v>
       </c>
       <c r="D43" t="n">
-        <v>679.54</v>
+        <v>342.68</v>
       </c>
       <c r="E43" t="n">
-        <v>16.6</v>
+        <v>6.552</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>pond33</t>
+          <t>pond19</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>322.14</v>
+        <v>342.68</v>
       </c>
       <c r="D44" t="n">
-        <v>366.3</v>
+        <v>413.18</v>
       </c>
       <c r="E44" t="n">
-        <v>9.640000000000001</v>
+        <v>2.132</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>pond48</t>
+          <t>pond59</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>350.18</v>
+        <v>610.52</v>
       </c>
       <c r="D45" t="n">
-        <v>429.88</v>
+        <v>667.6</v>
       </c>
       <c r="E45" t="n">
-        <v>1.392</v>
+        <v>18.276</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>depot2</t>
+          <t>pond11</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>429.88</v>
+        <v>388.64</v>
       </c>
       <c r="D46" t="n">
-        <v>494.1</v>
+        <v>449.1</v>
       </c>
       <c r="E46" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>pond18</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>273.8</v>
+        <v>449.1</v>
       </c>
       <c r="D47" t="n">
-        <v>347.96</v>
+        <v>543.6</v>
       </c>
       <c r="E47" t="n">
-        <v>9.843999999999999</v>
+        <v>30</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>pond29</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>679.54</v>
+        <v>413.18</v>
       </c>
       <c r="D48" t="n">
-        <v>744.96</v>
+        <v>500.42</v>
       </c>
       <c r="E48" t="n">
-        <v>13.168</v>
+        <v>30</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>pond41</t>
+          <t>pond64</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>494.1</v>
+        <v>500.42</v>
       </c>
       <c r="D49" t="n">
-        <v>563.48</v>
+        <v>552.34</v>
       </c>
       <c r="E49" t="n">
-        <v>27.192</v>
+        <v>27.008</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>pond59</t>
+          <t>pond40</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>347.96</v>
+        <v>667.6</v>
       </c>
       <c r="D50" t="n">
-        <v>420.14</v>
+        <v>736.58</v>
       </c>
       <c r="E50" t="n">
-        <v>5.756</v>
+        <v>15.468</v>
       </c>
     </row>
     <row r="51">
@@ -1397,74 +1397,74 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>pond23</t>
+          <t>pond43</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>420.14</v>
+        <v>552.34</v>
       </c>
       <c r="D51" t="n">
-        <v>500.46</v>
+        <v>626.08</v>
       </c>
       <c r="E51" t="n">
-        <v>2.324</v>
+        <v>23.224</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>pond2</t>
+          <t>pond61</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>563.48</v>
+        <v>275.54</v>
       </c>
       <c r="D52" t="n">
-        <v>623.8200000000001</v>
+        <v>329.86</v>
       </c>
       <c r="E52" t="n">
-        <v>24.288</v>
+        <v>11.264</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>pond15</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>500.46</v>
+        <v>379.02</v>
       </c>
       <c r="D53" t="n">
-        <v>567.71</v>
+        <v>431.94</v>
       </c>
       <c r="E53" t="n">
-        <v>30</v>
+        <v>4.696</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>pond63</t>
+          <t>pond20</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>567.71</v>
+        <v>538.97</v>
       </c>
       <c r="D54" t="n">
-        <v>636.61</v>
+        <v>595.59</v>
       </c>
       <c r="E54" t="n">
-        <v>25.8</v>
+        <v>22.648</v>
       </c>
     </row>
     <row r="55">
@@ -1473,36 +1473,36 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>pond62</t>
+          <t>pond26</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>366.3</v>
+        <v>543.6</v>
       </c>
       <c r="D55" t="n">
-        <v>448.64</v>
+        <v>612.48</v>
       </c>
       <c r="E55" t="n">
-        <v>5.496</v>
+        <v>26.752</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>pond14</t>
+          <t>pond33</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>448.64</v>
+        <v>736.58</v>
       </c>
       <c r="D56" t="n">
-        <v>522.04</v>
+        <v>810.04</v>
       </c>
       <c r="E56" t="n">
-        <v>1.296</v>
+        <v>12.192</v>
       </c>
     </row>
     <row r="57">
@@ -1511,60 +1511,60 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>pond58</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>522.04</v>
+        <v>612.48</v>
       </c>
       <c r="D57" t="n">
-        <v>601.25</v>
+        <v>664.12</v>
       </c>
       <c r="E57" t="n">
-        <v>30</v>
+        <v>23.728</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>pond61</t>
+          <t>pond23</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>604.86</v>
+        <v>431.94</v>
       </c>
       <c r="D58" t="n">
-        <v>669.58</v>
+        <v>472.66</v>
       </c>
       <c r="E58" t="n">
-        <v>20.008</v>
+        <v>1.264</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>pond6</t>
+          <t>depot2</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>669.58</v>
+        <v>472.66</v>
       </c>
       <c r="D59" t="n">
-        <v>740.52</v>
+        <v>547.03</v>
       </c>
       <c r="E59" t="n">
-        <v>17.044</v>
+        <v>30</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
@@ -1572,18 +1572,18 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>636.61</v>
+        <v>547.03</v>
       </c>
       <c r="D60" t="n">
-        <v>704.85</v>
+        <v>605.77</v>
       </c>
       <c r="E60" t="n">
-        <v>23.096</v>
+        <v>27.296</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
@@ -1591,13 +1591,13 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>740.52</v>
+        <v>626.08</v>
       </c>
       <c r="D61" t="n">
-        <v>789.9</v>
+        <v>710.16</v>
       </c>
       <c r="E61" t="n">
-        <v>13.236</v>
+        <v>19.416</v>
       </c>
     </row>
     <row r="62">
@@ -1606,36 +1606,36 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>pond51</t>
+          <t>pond63</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>396.32</v>
+        <v>329.86</v>
       </c>
       <c r="D62" t="n">
-        <v>471.06</v>
+        <v>388.06</v>
       </c>
       <c r="E62" t="n">
-        <v>6.144</v>
+        <v>7.064</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>pond47</t>
+          <t>pond34</t>
         </is>
       </c>
       <c r="C63" t="n">
-        <v>471.06</v>
+        <v>595.59</v>
       </c>
       <c r="D63" t="n">
-        <v>522.66</v>
+        <v>649.79</v>
       </c>
       <c r="E63" t="n">
-        <v>3.584</v>
+        <v>19.348</v>
       </c>
     </row>
     <row r="64">
@@ -1644,17 +1644,17 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>pond10</t>
+          <t>pond53</t>
         </is>
       </c>
       <c r="C64" t="n">
-        <v>744.96</v>
+        <v>605.77</v>
       </c>
       <c r="D64" t="n">
-        <v>800.1</v>
+        <v>675.85</v>
       </c>
       <c r="E64" t="n">
-        <v>10.264</v>
+        <v>22.928</v>
       </c>
     </row>
     <row r="65">
@@ -1663,17 +1663,17 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>pond4</t>
+          <t>pond37</t>
         </is>
       </c>
       <c r="C65" t="n">
-        <v>522.66</v>
+        <v>388.06</v>
       </c>
       <c r="D65" t="n">
-        <v>598.08</v>
+        <v>470.26</v>
       </c>
       <c r="E65" t="n">
-        <v>0.152</v>
+        <v>1.464</v>
       </c>
     </row>
     <row r="66">
@@ -1686,10 +1686,10 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>598.08</v>
+        <v>470.26</v>
       </c>
       <c r="D66" t="n">
-        <v>694.38</v>
+        <v>549.03</v>
       </c>
       <c r="E66" t="n">
         <v>30</v>
@@ -1697,97 +1697,97 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>pond38</t>
+          <t>pond22</t>
         </is>
       </c>
       <c r="C67" t="n">
-        <v>601.25</v>
+        <v>675.85</v>
       </c>
       <c r="D67" t="n">
-        <v>668.49</v>
+        <v>731.27</v>
       </c>
       <c r="E67" t="n">
-        <v>24.956</v>
+        <v>20.016</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>pond34</t>
+          <t>pond27</t>
         </is>
       </c>
       <c r="C68" t="n">
-        <v>668.49</v>
+        <v>731.27</v>
       </c>
       <c r="D68" t="n">
-        <v>727.49</v>
+        <v>787.97</v>
       </c>
       <c r="E68" t="n">
-        <v>21.656</v>
+        <v>16.456</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>pond50</t>
+          <t>pond2</t>
         </is>
       </c>
       <c r="C69" t="n">
-        <v>704.85</v>
+        <v>664.12</v>
       </c>
       <c r="D69" t="n">
-        <v>786.75</v>
+        <v>729.5599999999999</v>
       </c>
       <c r="E69" t="n">
-        <v>19.016</v>
+        <v>20.824</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>pond24</t>
+          <t>pond42</t>
         </is>
       </c>
       <c r="C70" t="n">
-        <v>727.49</v>
+        <v>549.03</v>
       </c>
       <c r="D70" t="n">
-        <v>807.8099999999999</v>
+        <v>618.99</v>
       </c>
       <c r="E70" t="n">
-        <v>17.704</v>
+        <v>27.144</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>pond16</t>
+          <t>pond52</t>
         </is>
       </c>
       <c r="C71" t="n">
-        <v>807.8099999999999</v>
+        <v>618.99</v>
       </c>
       <c r="D71" t="n">
-        <v>838.85</v>
+        <v>668.3099999999999</v>
       </c>
       <c r="E71" t="n">
-        <v>15.24</v>
+        <v>23.832</v>
       </c>
     </row>
   </sheetData>
